--- a/LesDeportes.xlsx
+++ b/LesDeportes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\PB\PB_Reel\PB_R-el\MonProjet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\PB\PB_Reel\PB_R-el\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -4931,7 +4931,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4982,6 +4982,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5266,7 +5269,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P843"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I771" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A582" workbookViewId="0">
       <selection activeCell="P588" sqref="P588"/>
     </sheetView>
   </sheetViews>
@@ -33555,7 +33558,7 @@
       <c r="O588">
         <v>587</v>
       </c>
-      <c r="P588" s="2">
+      <c r="P588" s="19">
         <v>54</v>
       </c>
     </row>
